--- a/nba_quiz_info.xlsx
+++ b/nba_quiz_info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goerg\Documents\Fall 2019\Intro to Web Apps\nbaquiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA97FF-9F82-4121-A1CD-BF49CB629CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE57B2C-5B4B-40CF-B890-BDEC9C8537C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{EF90724D-01D3-4490-8EEF-DEBA05A3D47A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{EF90724D-01D3-4490-8EEF-DEBA05A3D47A}"/>
   </bookViews>
   <sheets>
     <sheet name="Map Coordinates" sheetId="1" r:id="rId1"/>
-    <sheet name="Text Questions" sheetId="4" r:id="rId2"/>
-    <sheet name="Radio Questions" sheetId="5" r:id="rId3"/>
-    <sheet name="Checkbox Questions" sheetId="6" r:id="rId4"/>
+    <sheet name="Radio Questions" sheetId="5" r:id="rId2"/>
+    <sheet name="Checkbox Questions" sheetId="6" r:id="rId3"/>
+    <sheet name="Text Questions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="332">
   <si>
     <t>Atlanta Hawks</t>
   </si>
@@ -871,9 +871,6 @@
     <t>3, 4</t>
   </si>
   <si>
-    <t>2, 3, 5</t>
-  </si>
-  <si>
     <t>What three years did the Miami Heat win the NBA championship?</t>
   </si>
   <si>
@@ -938,6 +935,170 @@
   </si>
   <si>
     <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>Select all current New York Knicks players.</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>RJ Barrett</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>Dennis Smith Jr.</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Chauncey Billups</t>
+  </si>
+  <si>
+    <t>Which three former Oklahoma City Thunder players were named MVPs?</t>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
+  </si>
+  <si>
+    <t>Gred Oden</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>What did the Charlotte Hornets get in exchange for trading Kemba Walker to the Celtics in 2019?</t>
+  </si>
+  <si>
+    <t>1st Round Pick</t>
+  </si>
+  <si>
+    <t>2nd Round Pick</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Which players were on the Dallas Mavericks 2011 championship team?</t>
+  </si>
+  <si>
+    <t>JJ Barea</t>
+  </si>
+  <si>
+    <t>Who were the Finals MVPs for the 2015, 2017, and 2018 Golden State Warriors championship teams?</t>
+  </si>
+  <si>
+    <t>Andre Igoudala</t>
+  </si>
+  <si>
+    <t>Steph Curry</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which two players are </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> top three career scoring leaders for the Detroit Pistons?</t>
+    </r>
+  </si>
+  <si>
+    <t>Richard Hamilton</t>
+  </si>
+  <si>
+    <t>Bob Lanier</t>
+  </si>
+  <si>
+    <t>Joe Dumars</t>
+  </si>
+  <si>
+    <t>Isiah Thomas</t>
+  </si>
+  <si>
+    <t>Michael Beasley</t>
+  </si>
+  <si>
+    <t>These two players are in the top three in career scoring for the Houston Rockets.</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Which two players led the Denver Nuggets to the 2009 Western Conference Finals?</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+  </si>
+  <si>
+    <t>Dikembe Mutombo</t>
+  </si>
+  <si>
+    <t>The Los Angeles Clippers picked up these two superstars in the 2019 offseason.</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>LeMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>These three Memphis Grizzlies are getting their jerseys retired at FedEx Forum.</t>
+  </si>
+  <si>
+    <t>Mike Conley Jr.</t>
+  </si>
+  <si>
+    <t>Zach Randolph</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Tony Allen</t>
+  </si>
+  <si>
+    <t>Pau Gasol</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599F079F-3F49-487C-9D49-81357A53FB19}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
@@ -1793,375 +1954,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C73BFC7-3FC2-4B32-80F1-1269D7688350}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="22.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.9453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32740BE4-3E34-4CAE-B179-DAE6E508E058}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2891,13 +2689,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A1E12A-B19D-4DF9-A50D-7C1E1F59CF93}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2963,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3">
         <v>1976</v>
@@ -2981,7 +2779,7 @@
         <v>2005</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
@@ -2989,56 +2787,77 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
         <v>270</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>271</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
         <v>272</v>
       </c>
-      <c r="E4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>275</v>
-      </c>
-      <c r="G4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
         <v>279</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>280</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>281</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>282</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>283</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>284</v>
-      </c>
-      <c r="H6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
@@ -3046,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -3064,33 +2883,138 @@
         <v>2018</v>
       </c>
       <c r="H7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
@@ -3122,6 +3046,27 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
@@ -3153,13 +3098,34 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17">
         <v>2004</v>
@@ -3177,7 +3143,7 @@
         <v>2014</v>
       </c>
       <c r="H17" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.6">
@@ -3199,24 +3165,66 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s">
         <v>168</v>
@@ -3225,7 +3233,7 @@
         <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H23" t="s">
         <v>205</v>
@@ -3273,8 +3281,372 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H15 H17 H3" twoDigitTextYear="1"/>
+    <ignoredError sqref="H15 H3" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C73BFC7-3FC2-4B32-80F1-1269D7688350}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="22.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.9453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>